--- a/Code/Results/Cases/Case_1_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_73/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.05910416181417</v>
+        <v>19.26372206575458</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.375008427359835</v>
+        <v>9.44126855360463</v>
       </c>
       <c r="E2">
-        <v>13.04930248666603</v>
+        <v>14.92188802172695</v>
       </c>
       <c r="F2">
-        <v>19.43800217175013</v>
+        <v>30.90481186196838</v>
       </c>
       <c r="G2">
-        <v>2.06095906503893</v>
+        <v>3.63964322550747</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.76811042137918</v>
+        <v>24.39325557877157</v>
       </c>
       <c r="J2">
-        <v>8.746183241896292</v>
+        <v>10.7612574448854</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.560869545661</v>
+        <v>13.25964699502668</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.85095092201774</v>
+        <v>23.54983101980319</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.51501667551707</v>
+        <v>18.65906230001512</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.340140750891699</v>
+        <v>9.44801843480195</v>
       </c>
       <c r="E3">
-        <v>12.70567059203243</v>
+        <v>14.84745460409717</v>
       </c>
       <c r="F3">
-        <v>19.2065156168631</v>
+        <v>31.05686485496661</v>
       </c>
       <c r="G3">
-        <v>2.067704613120941</v>
+        <v>3.642218384008967</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.11024838730236</v>
+        <v>24.57077162536456</v>
       </c>
       <c r="J3">
-        <v>8.557766056900222</v>
+        <v>10.72634691654375</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.58814325603119</v>
+        <v>12.90651743915028</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.5006722199634</v>
+        <v>23.62124284357227</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.51365570685474</v>
+        <v>18.27727883939972</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.32014232982761</v>
+        <v>9.453042502047909</v>
       </c>
       <c r="E4">
-        <v>12.49242641353116</v>
+        <v>14.80311576290471</v>
       </c>
       <c r="F4">
-        <v>19.09699170258419</v>
+        <v>31.16070733145129</v>
       </c>
       <c r="G4">
-        <v>2.07196768405793</v>
+        <v>3.643883505373849</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.33973961168905</v>
+        <v>24.6869950528856</v>
       </c>
       <c r="J4">
-        <v>8.441656127865699</v>
+        <v>10.70584606458029</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.9580103680714</v>
+        <v>12.6845587708625</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.30513650496738</v>
+        <v>23.6727507468271</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.09221081832069</v>
+        <v>18.1192482056706</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.312351345278164</v>
+        <v>9.455311927697485</v>
       </c>
       <c r="E5">
-        <v>12.40507421047684</v>
+        <v>14.78540343950279</v>
       </c>
       <c r="F5">
-        <v>19.06026182624673</v>
+        <v>31.20564474879775</v>
       </c>
       <c r="G5">
-        <v>2.073736397008961</v>
+        <v>3.644583239287857</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.43784649628844</v>
+        <v>24.73617263952232</v>
       </c>
       <c r="J5">
-        <v>8.394287543617128</v>
+        <v>10.69773212261343</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.69300201636502</v>
+        <v>12.59292680557041</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.23031508693354</v>
+        <v>23.69565709603989</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.02142296949063</v>
+        <v>18.09286533609602</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.3110794218072</v>
+        <v>9.455702202771713</v>
       </c>
       <c r="E6">
-        <v>12.39054549207549</v>
+        <v>14.78248420949609</v>
       </c>
       <c r="F6">
-        <v>19.05463073296468</v>
+        <v>31.21326442091591</v>
       </c>
       <c r="G6">
-        <v>2.074032019269993</v>
+        <v>3.644700711059431</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.45440611294482</v>
+        <v>24.74444814591033</v>
       </c>
       <c r="J6">
-        <v>8.386420426545779</v>
+        <v>10.69639947714347</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.64850255022278</v>
+        <v>12.5776433373643</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.21818266713894</v>
+        <v>23.69957612613725</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.50802609684261</v>
+        <v>18.27515723665171</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.32003580122608</v>
+        <v>9.453072207962837</v>
       </c>
       <c r="E7">
-        <v>12.4912500328552</v>
+        <v>14.8028754292277</v>
       </c>
       <c r="F7">
-        <v>19.0964647750469</v>
+        <v>31.16130278169872</v>
       </c>
       <c r="G7">
-        <v>2.071991408830414</v>
+        <v>3.643892856366768</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.34104450816845</v>
+        <v>24.68765093015605</v>
       </c>
       <c r="J7">
-        <v>8.441017440868784</v>
+        <v>10.70573565710859</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.95446959950429</v>
+        <v>12.68332762612074</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.30410784070813</v>
+        <v>23.67305192377548</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.53776438220574</v>
+        <v>19.05753027055244</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.362695666541543</v>
+        <v>9.443413888211984</v>
       </c>
       <c r="E8">
-        <v>12.93135138044536</v>
+        <v>14.89594841149201</v>
       </c>
       <c r="F8">
-        <v>19.35124947287265</v>
+        <v>30.95505549443504</v>
       </c>
       <c r="G8">
-        <v>2.063260366753241</v>
+        <v>3.64051375577897</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.88186165860371</v>
+        <v>24.45296177578345</v>
       </c>
       <c r="J8">
-        <v>8.68133546103966</v>
+        <v>10.74902963877765</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.23231570433586</v>
+        <v>13.13901719604758</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.72609576964193</v>
+        <v>23.57285805813816</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09578723917995</v>
+        <v>20.50060006712956</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.457371873795899</v>
+        <v>9.431413933261917</v>
       </c>
       <c r="E9">
-        <v>13.77193010786872</v>
+        <v>15.08868842623669</v>
       </c>
       <c r="F9">
-        <v>20.12096673513738</v>
+        <v>30.63442004185876</v>
       </c>
       <c r="G9">
-        <v>2.047053744835142</v>
+        <v>3.634550365250472</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.15054088976613</v>
+        <v>24.05017866258719</v>
       </c>
       <c r="J9">
-        <v>9.147061480507279</v>
+        <v>10.84110105752239</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.49989979949165</v>
+        <v>13.98744571750455</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.70989892082339</v>
+        <v>23.43757743274715</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.45456163840507</v>
+        <v>21.49611516416753</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.53342575478322</v>
+        <v>9.426775205131078</v>
       </c>
       <c r="E10">
-        <v>14.3702574719091</v>
+        <v>15.23571218448944</v>
       </c>
       <c r="F10">
-        <v>20.863780853295</v>
+        <v>30.4508125409377</v>
       </c>
       <c r="G10">
-        <v>2.035633612275691</v>
+        <v>3.630568777750028</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.74005373945805</v>
+        <v>23.78940782248305</v>
       </c>
       <c r="J10">
-        <v>9.483136249703541</v>
+        <v>10.91278660887092</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.04048508274481</v>
+        <v>14.577852703279</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.52865402997987</v>
+        <v>23.37601930644954</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.48380592897131</v>
+        <v>21.93333429452536</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.569390393830286</v>
+        <v>9.425560386848726</v>
       </c>
       <c r="E11">
-        <v>14.63727141306163</v>
+        <v>15.30359478487996</v>
       </c>
       <c r="F11">
-        <v>21.24214881755267</v>
+        <v>30.37874599455934</v>
       </c>
       <c r="G11">
-        <v>2.030526907136478</v>
+        <v>3.628843291424489</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.58689568100168</v>
+        <v>23.6784438219205</v>
       </c>
       <c r="J11">
-        <v>9.634196828159194</v>
+        <v>10.94620211510115</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>19.70457705196135</v>
+        <v>14.83830426521829</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.92191614275696</v>
+        <v>23.3563266658234</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.87204342177932</v>
+        <v>22.09653267906503</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.583202377687638</v>
+        <v>9.425228095790072</v>
       </c>
       <c r="E12">
-        <v>14.7375676689938</v>
+        <v>15.32942866765696</v>
       </c>
       <c r="F12">
-        <v>21.3913600837748</v>
+        <v>30.35311780918817</v>
       </c>
       <c r="G12">
-        <v>2.028604295533956</v>
+        <v>3.628202153918678</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.53429200805719</v>
+        <v>23.63752985457988</v>
       </c>
       <c r="J12">
-        <v>9.691100471475474</v>
+        <v>10.95896506193836</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>19.95083517807494</v>
+        <v>14.93568913741624</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.07381797710998</v>
+        <v>23.35007124102467</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.78879547232966</v>
+        <v>22.06149198373073</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.580219191408421</v>
+        <v>9.425293996039803</v>
       </c>
       <c r="E13">
-        <v>14.71600444052434</v>
+        <v>15.32385942748462</v>
       </c>
       <c r="F13">
-        <v>21.35895939783759</v>
+        <v>30.35856316421327</v>
       </c>
       <c r="G13">
-        <v>2.029017892411748</v>
+        <v>3.628339689819228</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.54537173324303</v>
+        <v>23.64629216853503</v>
       </c>
       <c r="J13">
-        <v>9.678859141887401</v>
+        <v>10.95621158154032</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>19.89803016168068</v>
+        <v>14.91477192193021</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.04097067219358</v>
+        <v>23.35136491282411</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.51591153297625</v>
+        <v>21.94680878571823</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.570522866274245</v>
+        <v>9.42553049498572</v>
       </c>
       <c r="E14">
-        <v>14.64553958915913</v>
+        <v>15.3057176746489</v>
       </c>
       <c r="F14">
-        <v>21.25430507381815</v>
+        <v>30.376604162363</v>
       </c>
       <c r="G14">
-        <v>2.030368517694497</v>
+        <v>3.628790299184228</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.58245643049529</v>
+        <v>23.67505562218347</v>
       </c>
       <c r="J14">
-        <v>9.638884533846987</v>
+        <v>10.94724997964661</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>19.72494108064206</v>
+        <v>14.84634147583252</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.9343534720357</v>
+        <v>23.35578790801531</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.34768871608494</v>
+        <v>21.87625051300423</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.564608614675807</v>
+        <v>9.425691961611831</v>
       </c>
       <c r="E15">
-        <v>14.60226953529848</v>
+        <v>15.29462155680861</v>
       </c>
       <c r="F15">
-        <v>21.19097670668873</v>
+        <v>30.38787163195045</v>
       </c>
       <c r="G15">
-        <v>2.031197224200392</v>
+        <v>3.629067905994257</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.60589194609489</v>
+        <v>23.69281818220096</v>
       </c>
       <c r="J15">
-        <v>9.614358848154714</v>
+        <v>10.94177476580511</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>19.61824127181442</v>
+        <v>14.80426197560788</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.86943549644496</v>
+        <v>23.35865380818326</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.38691347260123</v>
+        <v>21.46721670720195</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.531102572029927</v>
+        <v>9.426872526841997</v>
       </c>
       <c r="E16">
-        <v>14.35269704729211</v>
+        <v>15.23129469621326</v>
       </c>
       <c r="F16">
-        <v>20.83987802342233</v>
+        <v>30.45575404502528</v>
       </c>
       <c r="G16">
-        <v>2.035968998593573</v>
+        <v>3.630683262426405</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.75078586642888</v>
+        <v>23.79681408755953</v>
       </c>
       <c r="J16">
-        <v>9.47322410906896</v>
+        <v>10.91061847230105</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.99635127222556</v>
+        <v>14.5606615676847</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.50337115615269</v>
+        <v>23.37747408847546</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78796867707679</v>
+        <v>21.21219275741212</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.51089516747118</v>
+        <v>9.427825371956663</v>
       </c>
       <c r="E17">
-        <v>14.19821399322724</v>
+        <v>15.19269091385699</v>
       </c>
       <c r="F17">
-        <v>20.63494167089</v>
+        <v>30.50034255587807</v>
       </c>
       <c r="G17">
-        <v>2.038917918841661</v>
+        <v>3.631696149413518</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.84866019348158</v>
+        <v>23.86257732045596</v>
       </c>
       <c r="J17">
-        <v>9.386147813780763</v>
+        <v>10.89170671912705</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.60547785499929</v>
+        <v>14.40908421080306</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.28412332242965</v>
+        <v>23.39115328180627</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43832600594856</v>
+        <v>21.0640431868133</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.49940130167442</v>
+        <v>9.428457761278773</v>
       </c>
       <c r="E18">
-        <v>14.10887677077023</v>
+        <v>15.17058218375061</v>
       </c>
       <c r="F18">
-        <v>20.52087085821389</v>
+        <v>30.52706629156053</v>
       </c>
       <c r="G18">
-        <v>2.040622475872587</v>
+        <v>3.632286811014186</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.90807816007119</v>
+        <v>23.90112352278157</v>
       </c>
       <c r="J18">
-        <v>9.33589438997001</v>
+        <v>10.88090538798995</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.37719676530055</v>
+        <v>14.32113986897913</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.15997670464493</v>
+        <v>23.39980306369427</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.31905721449462</v>
+        <v>21.01363420234014</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.49553193344855</v>
+        <v>9.428686393221742</v>
       </c>
       <c r="E19">
-        <v>14.07854819386696</v>
+        <v>15.16311336473848</v>
       </c>
       <c r="F19">
-        <v>20.48289775755863</v>
+        <v>30.53629912511126</v>
       </c>
       <c r="G19">
-        <v>2.041201099357385</v>
+        <v>3.632488187902081</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.92871603015006</v>
+        <v>23.91429831013372</v>
       </c>
       <c r="J19">
-        <v>9.31885156010193</v>
+        <v>10.87726153093153</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.29930845106071</v>
+        <v>14.29123507781966</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.11827960894689</v>
+        <v>23.40286579968599</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85225941292276</v>
+        <v>21.23949316535925</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.513032967625251</v>
+        <v>9.427715218607343</v>
       </c>
       <c r="E20">
-        <v>14.21470948770217</v>
+        <v>15.19679061855543</v>
       </c>
       <c r="F20">
-        <v>20.65636298151671</v>
+        <v>30.49548439966149</v>
       </c>
       <c r="G20">
-        <v>2.03860314082516</v>
+        <v>3.631587490522973</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.83791411428166</v>
+        <v>23.85550207093234</v>
       </c>
       <c r="J20">
-        <v>9.395435057306429</v>
+        <v>10.89371206759197</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.64744476499912</v>
+        <v>14.4252992022814</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.30725997243607</v>
+        <v>23.38961613608051</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.59628767209211</v>
+        <v>21.98055912819876</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.573365702149935</v>
+        <v>9.425457571061036</v>
       </c>
       <c r="E21">
-        <v>14.66625951100287</v>
+        <v>15.31104299314706</v>
       </c>
       <c r="F21">
-        <v>21.28488281604783</v>
+        <v>30.37125987042855</v>
       </c>
       <c r="G21">
-        <v>2.029971515465617</v>
+        <v>3.628657611892865</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.57141261804602</v>
+        <v>23.66657705801232</v>
       </c>
       <c r="J21">
-        <v>9.650634460365628</v>
+        <v>10.94987930824927</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>19.77592266375979</v>
+        <v>14.86647543003813</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.96558864990992</v>
+        <v>23.3544561027344</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.71105968235262</v>
+        <v>22.45104674045034</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.6139199922732</v>
+        <v>9.424726113274868</v>
       </c>
       <c r="E22">
-        <v>14.95658894137028</v>
+        <v>15.38645350758314</v>
       </c>
       <c r="F22">
-        <v>21.73026815923329</v>
+        <v>30.29976475318678</v>
       </c>
       <c r="G22">
-        <v>2.024394653057751</v>
+        <v>3.62681423672851</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.4289743264915</v>
+        <v>23.54955045544525</v>
       </c>
       <c r="J22">
-        <v>9.815660424945539</v>
+        <v>10.98722133153234</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>20.4830596522412</v>
+        <v>15.14753815725222</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.41322635105143</v>
+        <v>23.33848420472087</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.12045144131697</v>
+        <v>22.20124046217121</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.592173698677692</v>
+        <v>9.425048767746471</v>
       </c>
       <c r="E23">
-        <v>14.80209426399834</v>
+        <v>15.34614300120512</v>
       </c>
       <c r="F23">
-        <v>21.48935882271896</v>
+        <v>30.33703156834627</v>
       </c>
       <c r="G23">
-        <v>2.027365773475221</v>
+        <v>3.627791562660112</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.50189330735224</v>
+        <v>23.61141851248851</v>
       </c>
       <c r="J23">
-        <v>9.727755566296818</v>
+        <v>10.96723543283572</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.1084060595835</v>
+        <v>14.99821758653654</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.17272486266927</v>
+        <v>23.3463655546051</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82321008913295</v>
+        <v>21.22715541652073</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.512066082777694</v>
+        <v>9.42776475539068</v>
       </c>
       <c r="E24">
-        <v>14.20725349759589</v>
+        <v>15.19493687578926</v>
       </c>
       <c r="F24">
-        <v>20.64666673594726</v>
+        <v>30.49767738027778</v>
       </c>
       <c r="G24">
-        <v>2.038745423248454</v>
+        <v>3.631636589224754</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.84276265144011</v>
+        <v>23.85869849250696</v>
       </c>
       <c r="J24">
-        <v>9.39123688994734</v>
+        <v>10.89280522698785</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.62848262683833</v>
+        <v>14.41797089236453</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.29679396815657</v>
+        <v>23.3903086335442</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17829885784164</v>
+        <v>20.1209763108901</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.430602795355149</v>
+        <v>9.433922674081154</v>
       </c>
       <c r="E25">
-        <v>13.54754166853293</v>
+        <v>15.03553563617304</v>
       </c>
       <c r="F25">
-        <v>19.88236990827007</v>
+        <v>30.71209642148068</v>
       </c>
       <c r="G25">
-        <v>2.051347126805191</v>
+        <v>3.636093104365568</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.32799683539854</v>
+        <v>24.15297950586439</v>
       </c>
       <c r="J25">
-        <v>9.021956412192026</v>
+        <v>10.81545910600688</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.89960912237326</v>
+        <v>13.76334623740298</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.42690255959171</v>
+        <v>23.46756566391307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_73/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_73/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.26372206575458</v>
+        <v>24.05910416181417</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.44126855360463</v>
+        <v>6.37500842735965</v>
       </c>
       <c r="E2">
-        <v>14.92188802172695</v>
+        <v>13.04930248666602</v>
       </c>
       <c r="F2">
-        <v>30.90481186196838</v>
+        <v>19.43800217175012</v>
       </c>
       <c r="G2">
-        <v>3.63964322550747</v>
+        <v>2.060959065038931</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.39325557877157</v>
+        <v>14.76811042137916</v>
       </c>
       <c r="J2">
-        <v>10.7612574448854</v>
+        <v>8.746183241896361</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.25964699502668</v>
+        <v>15.56086954566098</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.54983101980319</v>
+        <v>15.85095092201775</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.65906230001512</v>
+        <v>22.51501667551704</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.44801843480195</v>
+        <v>6.340140750891575</v>
       </c>
       <c r="E3">
-        <v>14.84745460409717</v>
+        <v>12.70567059203242</v>
       </c>
       <c r="F3">
-        <v>31.05686485496661</v>
+        <v>19.20651561686314</v>
       </c>
       <c r="G3">
-        <v>3.642218384008967</v>
+        <v>2.067704613120939</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.57077162536456</v>
+        <v>15.11024838730247</v>
       </c>
       <c r="J3">
-        <v>10.72634691654375</v>
+        <v>8.557766056900249</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.90651743915028</v>
+        <v>14.58814325603116</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.62124284357227</v>
+        <v>15.50067221996347</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.27727883939972</v>
+        <v>21.51365570685468</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.453042502047909</v>
+        <v>6.320142329827469</v>
       </c>
       <c r="E4">
-        <v>14.80311576290471</v>
+        <v>12.49242641353124</v>
       </c>
       <c r="F4">
-        <v>31.16070733145129</v>
+        <v>19.09699170258418</v>
       </c>
       <c r="G4">
-        <v>3.643883505373849</v>
+        <v>2.071967684057797</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.6869950528856</v>
+        <v>15.33973961168913</v>
       </c>
       <c r="J4">
-        <v>10.70584606458029</v>
+        <v>8.441656127865821</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.6845587708625</v>
+        <v>13.95801036807136</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.6727507468271</v>
+        <v>15.3051365049674</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.1192482056706</v>
+        <v>21.09221081832072</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.455311927697485</v>
+        <v>6.31235134527829</v>
       </c>
       <c r="E5">
-        <v>14.78540343950279</v>
+        <v>12.40507421047693</v>
       </c>
       <c r="F5">
-        <v>31.20564474879775</v>
+        <v>19.06026182624684</v>
       </c>
       <c r="G5">
-        <v>3.644583239287857</v>
+        <v>2.073736397008692</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.73617263952232</v>
+        <v>15.43784649628859</v>
       </c>
       <c r="J5">
-        <v>10.69773212261343</v>
+        <v>8.394287543617111</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.59292680557041</v>
+        <v>13.69300201636499</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.69565709603989</v>
+        <v>15.23031508693359</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.09286533609602</v>
+        <v>21.02142296949062</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.455702202771713</v>
+        <v>6.3110794218072</v>
       </c>
       <c r="E6">
-        <v>14.78248420949609</v>
+        <v>12.39054549207542</v>
       </c>
       <c r="F6">
-        <v>31.21326442091591</v>
+        <v>19.05463073296477</v>
       </c>
       <c r="G6">
-        <v>3.644700711059431</v>
+        <v>2.074032019269994</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.74444814591033</v>
+        <v>15.4544061129448</v>
       </c>
       <c r="J6">
-        <v>10.69639947714347</v>
+        <v>8.386420426545744</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.5776433373643</v>
+        <v>13.64850255022277</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.69957612613725</v>
+        <v>15.21818266713899</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.27515723665171</v>
+        <v>21.50802609684264</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.453072207962837</v>
+        <v>6.320035801225895</v>
       </c>
       <c r="E7">
-        <v>14.8028754292277</v>
+        <v>12.49125003285515</v>
       </c>
       <c r="F7">
-        <v>31.16130278169872</v>
+        <v>19.09646477504687</v>
       </c>
       <c r="G7">
-        <v>3.643892856366768</v>
+        <v>2.071991408830412</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.68765093015605</v>
+        <v>15.34104450816844</v>
       </c>
       <c r="J7">
-        <v>10.70573565710859</v>
+        <v>8.441017440868839</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.68332762612074</v>
+        <v>13.95446959950429</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.67305192377548</v>
+        <v>15.30410784070816</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.05753027055244</v>
+        <v>23.53776438220577</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.443413888211984</v>
+        <v>6.362695666541674</v>
       </c>
       <c r="E8">
-        <v>14.89594841149201</v>
+        <v>12.9313513804454</v>
       </c>
       <c r="F8">
-        <v>30.95505549443504</v>
+        <v>19.35124947287263</v>
       </c>
       <c r="G8">
-        <v>3.64051375577897</v>
+        <v>2.063260366753108</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.45296177578345</v>
+        <v>14.8818616586038</v>
       </c>
       <c r="J8">
-        <v>10.74902963877765</v>
+        <v>8.681335461039639</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.13901719604758</v>
+        <v>15.23231570433583</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.57285805813816</v>
+        <v>15.72609576964189</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.50060006712956</v>
+        <v>27.09578723917996</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.431413933261917</v>
+        <v>6.457371873795897</v>
       </c>
       <c r="E9">
-        <v>15.08868842623669</v>
+        <v>13.77193010786872</v>
       </c>
       <c r="F9">
-        <v>30.63442004185876</v>
+        <v>20.12096673513731</v>
       </c>
       <c r="G9">
-        <v>3.634550365250472</v>
+        <v>2.047053744835142</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.05017866258719</v>
+        <v>14.15054088976613</v>
       </c>
       <c r="J9">
-        <v>10.84110105752239</v>
+        <v>9.147061480507357</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.98744571750455</v>
+        <v>17.49989979949165</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.43757743274715</v>
+        <v>16.70989892082335</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.49611516416753</v>
+        <v>29.45456163840504</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.426775205131078</v>
+        <v>6.533425754783286</v>
       </c>
       <c r="E10">
-        <v>15.23571218448944</v>
+        <v>14.37025747190904</v>
       </c>
       <c r="F10">
-        <v>30.4508125409377</v>
+        <v>20.86378085329507</v>
       </c>
       <c r="G10">
-        <v>3.630568777750028</v>
+        <v>2.035633612276226</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.78940782248305</v>
+        <v>13.74005373945806</v>
       </c>
       <c r="J10">
-        <v>10.91278660887092</v>
+        <v>9.483136249703508</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.577852703279</v>
+        <v>19.04048508274483</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.37601930644954</v>
+        <v>17.52865402997993</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.93333429452536</v>
+        <v>30.48380592897131</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.425560386848726</v>
+        <v>6.56939039383033</v>
       </c>
       <c r="E11">
-        <v>15.30359478487996</v>
+        <v>14.63727141306168</v>
       </c>
       <c r="F11">
-        <v>30.37874599455934</v>
+        <v>21.24214881755272</v>
       </c>
       <c r="G11">
-        <v>3.628843291424489</v>
+        <v>2.03052690713648</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>23.6784438219205</v>
+        <v>13.58689568100178</v>
       </c>
       <c r="J11">
-        <v>10.94620211510115</v>
+        <v>9.634196828159249</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.83830426521829</v>
+        <v>19.70457705196135</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.3563266658234</v>
+        <v>17.92191614275698</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.09653267906503</v>
+        <v>30.87204342177928</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.425228095790072</v>
+        <v>6.583202377687458</v>
       </c>
       <c r="E12">
-        <v>15.32942866765696</v>
+        <v>14.73756766899378</v>
       </c>
       <c r="F12">
-        <v>30.35311780918817</v>
+        <v>21.39136008377475</v>
       </c>
       <c r="G12">
-        <v>3.628202153918678</v>
+        <v>2.028604295534224</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>23.63752985457988</v>
+        <v>13.53429200805716</v>
       </c>
       <c r="J12">
-        <v>10.95896506193836</v>
+        <v>9.691100471475556</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.93568913741624</v>
+        <v>19.9508351780749</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.35007124102467</v>
+        <v>18.07381797710997</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.06149198373073</v>
+        <v>30.78879547232962</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.425293996039803</v>
+        <v>6.580219191408421</v>
       </c>
       <c r="E13">
-        <v>15.32385942748462</v>
+        <v>14.71600444052436</v>
       </c>
       <c r="F13">
-        <v>30.35856316421327</v>
+        <v>21.35895939783761</v>
       </c>
       <c r="G13">
-        <v>3.628339689819228</v>
+        <v>2.029017892411748</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>23.64629216853503</v>
+        <v>13.54537173324308</v>
       </c>
       <c r="J13">
-        <v>10.95621158154032</v>
+        <v>9.678859141887408</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.91477192193021</v>
+        <v>19.89803016168067</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.35136491282411</v>
+        <v>18.04097067219359</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.94680878571823</v>
+        <v>30.51591153297626</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.42553049498572</v>
+        <v>6.570522866274127</v>
       </c>
       <c r="E14">
-        <v>15.3057176746489</v>
+        <v>14.64553958915921</v>
       </c>
       <c r="F14">
-        <v>30.376604162363</v>
+        <v>21.25430507381817</v>
       </c>
       <c r="G14">
-        <v>3.628790299184228</v>
+        <v>2.030368517694497</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>23.67505562218347</v>
+        <v>13.58245643049539</v>
       </c>
       <c r="J14">
-        <v>10.94724997964661</v>
+        <v>9.638884533847126</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.84634147583252</v>
+        <v>19.72494108064205</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.35578790801531</v>
+        <v>17.93435347203573</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.87625051300423</v>
+        <v>30.34768871608492</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.425691961611831</v>
+        <v>6.564608614675871</v>
       </c>
       <c r="E15">
-        <v>15.29462155680861</v>
+        <v>14.6022695352985</v>
       </c>
       <c r="F15">
-        <v>30.38787163195045</v>
+        <v>21.19097670668877</v>
       </c>
       <c r="G15">
-        <v>3.629067905994257</v>
+        <v>2.031197224200658</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>23.69281818220096</v>
+        <v>13.60589194609494</v>
       </c>
       <c r="J15">
-        <v>10.94177476580511</v>
+        <v>9.614358848154769</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.80426197560788</v>
+        <v>19.61824127181441</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.35865380818326</v>
+        <v>17.86943549644497</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.46721670720195</v>
+        <v>29.38691347260128</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.426872526841997</v>
+        <v>6.531102572029853</v>
       </c>
       <c r="E16">
-        <v>15.23129469621326</v>
+        <v>14.35269704729198</v>
       </c>
       <c r="F16">
-        <v>30.45575404502528</v>
+        <v>20.83987802342233</v>
       </c>
       <c r="G16">
-        <v>3.630683262426405</v>
+        <v>2.035968998593974</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.79681408755953</v>
+        <v>13.75078586642882</v>
       </c>
       <c r="J16">
-        <v>10.91061847230105</v>
+        <v>9.473224109068894</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.5606615676847</v>
+        <v>18.99635127222556</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.37747408847546</v>
+        <v>17.5033711561527</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.21219275741212</v>
+        <v>28.7879686770768</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.427825371956663</v>
+        <v>6.510895167470997</v>
       </c>
       <c r="E17">
-        <v>15.19269091385699</v>
+        <v>14.19821399322721</v>
       </c>
       <c r="F17">
-        <v>30.50034255587807</v>
+        <v>20.63494167088994</v>
       </c>
       <c r="G17">
-        <v>3.631696149413518</v>
+        <v>2.038917918841795</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.86257732045596</v>
+        <v>13.84866019348148</v>
       </c>
       <c r="J17">
-        <v>10.89170671912705</v>
+        <v>9.38614781378082</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>14.40908421080306</v>
+        <v>18.6054778549993</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.39115328180627</v>
+        <v>17.28412332242965</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.0640431868133</v>
+        <v>28.43832600594853</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.428457761278773</v>
+        <v>6.499401301674292</v>
       </c>
       <c r="E18">
-        <v>15.17058218375061</v>
+        <v>14.10887677077019</v>
       </c>
       <c r="F18">
-        <v>30.52706629156053</v>
+        <v>20.52087085821393</v>
       </c>
       <c r="G18">
-        <v>3.632286811014186</v>
+        <v>2.040622475872452</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.90112352278157</v>
+        <v>13.90807816007124</v>
       </c>
       <c r="J18">
-        <v>10.88090538798995</v>
+        <v>9.335894389970017</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.32113986897913</v>
+        <v>18.37719676530054</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.39980306369427</v>
+        <v>17.15997670464496</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.01363420234014</v>
+        <v>28.31905721449461</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.428686393221742</v>
+        <v>6.495531933448488</v>
       </c>
       <c r="E19">
-        <v>15.16311336473848</v>
+        <v>14.07854819386699</v>
       </c>
       <c r="F19">
-        <v>30.53629912511126</v>
+        <v>20.48289775755862</v>
       </c>
       <c r="G19">
-        <v>3.632488187902081</v>
+        <v>2.041201099357519</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.91429831013372</v>
+        <v>13.92871603014999</v>
       </c>
       <c r="J19">
-        <v>10.87726153093153</v>
+        <v>9.318851560101979</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.29123507781966</v>
+        <v>18.29930845106069</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.40286579968599</v>
+        <v>17.11827960894688</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.23949316535925</v>
+        <v>28.85225941292274</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.427715218607343</v>
+        <v>6.513032967625255</v>
       </c>
       <c r="E20">
-        <v>15.19679061855543</v>
+        <v>14.21470948770215</v>
       </c>
       <c r="F20">
-        <v>30.49548439966149</v>
+        <v>20.65636298151663</v>
       </c>
       <c r="G20">
-        <v>3.631587490522973</v>
+        <v>2.03860314082556</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.85550207093234</v>
+        <v>13.83791411428152</v>
       </c>
       <c r="J20">
-        <v>10.89371206759197</v>
+        <v>9.395435057306409</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>14.4252992022814</v>
+        <v>18.64744476499914</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.38961613608051</v>
+        <v>17.30725997243606</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.98055912819876</v>
+        <v>30.59628767209211</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.425457571061036</v>
+        <v>6.57336570214994</v>
       </c>
       <c r="E21">
-        <v>15.31104299314706</v>
+        <v>14.66625951100279</v>
       </c>
       <c r="F21">
-        <v>30.37125987042855</v>
+        <v>21.28488281604791</v>
       </c>
       <c r="G21">
-        <v>3.628657611892865</v>
+        <v>2.029971515465482</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>23.66657705801232</v>
+        <v>13.57141261804606</v>
       </c>
       <c r="J21">
-        <v>10.94987930824927</v>
+        <v>9.650634460365604</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.86647543003813</v>
+        <v>19.77592266375976</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.3544561027344</v>
+        <v>17.96558864990997</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.45104674045034</v>
+        <v>31.71105968235263</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.424726113274868</v>
+        <v>6.613919992273214</v>
       </c>
       <c r="E22">
-        <v>15.38645350758314</v>
+        <v>14.95658894137037</v>
       </c>
       <c r="F22">
-        <v>30.29976475318678</v>
+        <v>21.73026815923335</v>
       </c>
       <c r="G22">
-        <v>3.62681423672851</v>
+        <v>2.024394653057749</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.54955045544525</v>
+        <v>13.42897432649152</v>
       </c>
       <c r="J22">
-        <v>10.98722133153234</v>
+        <v>9.815660424945593</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.14753815725222</v>
+        <v>20.48305965224117</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.33848420472087</v>
+        <v>18.41322635105146</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.20124046217121</v>
+        <v>31.12045144131696</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.425048767746471</v>
+        <v>6.592173698677807</v>
       </c>
       <c r="E23">
-        <v>15.34614300120512</v>
+        <v>14.80209426399841</v>
       </c>
       <c r="F23">
-        <v>30.33703156834627</v>
+        <v>21.48935882271896</v>
       </c>
       <c r="G23">
-        <v>3.627791562660112</v>
+        <v>2.027365773474951</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>23.61141851248851</v>
+        <v>13.50189330735224</v>
       </c>
       <c r="J23">
-        <v>10.96723543283572</v>
+        <v>9.727755566296855</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.99821758653654</v>
+        <v>20.10840605958349</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.3463655546051</v>
+        <v>18.17272486266927</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.22715541652073</v>
+        <v>28.82321008913294</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.42776475539068</v>
+        <v>6.512066082777745</v>
       </c>
       <c r="E24">
-        <v>15.19493687578926</v>
+        <v>14.20725349759576</v>
       </c>
       <c r="F24">
-        <v>30.49767738027778</v>
+        <v>20.64666673594724</v>
       </c>
       <c r="G24">
-        <v>3.631636589224754</v>
+        <v>2.038745423248321</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.85869849250696</v>
+        <v>13.84276265143994</v>
       </c>
       <c r="J24">
-        <v>10.89280522698785</v>
+        <v>9.39123688994723</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>14.41797089236453</v>
+        <v>18.62848262683836</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.3903086335442</v>
+        <v>17.29679396815654</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.1209763108901</v>
+        <v>26.17829885784162</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.433922674081154</v>
+        <v>6.430602795355155</v>
       </c>
       <c r="E25">
-        <v>15.03553563617304</v>
+        <v>13.54754166853289</v>
       </c>
       <c r="F25">
-        <v>30.71209642148068</v>
+        <v>19.8823699082701</v>
       </c>
       <c r="G25">
-        <v>3.636093104365568</v>
+        <v>2.051347126805189</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.15297950586439</v>
+        <v>14.32799683539858</v>
       </c>
       <c r="J25">
-        <v>10.81545910600688</v>
+        <v>9.021956412191992</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.76334623740298</v>
+        <v>16.89960912237325</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.46756566391307</v>
+        <v>16.42690255959173</v>
       </c>
     </row>
   </sheetData>
